--- a/data/trans_camb/P18_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P18_2_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,34</t>
+          <t>-10,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>-7,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,4</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,15</t>
+          <t>-8,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,19</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,15</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,24</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,9</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,33</t>
+          <t>-7,45</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-5,11</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-6,68</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-6,56</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,91; -3,04</t>
+          <t>-24,49; -4,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,04; -2,0</t>
+          <t>-22,78; -1,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,28; -1,79</t>
+          <t>-22,15; -0,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,65; -3,29</t>
+          <t>-22,52; -2,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,77; -1,05</t>
+          <t>-10,09; 0,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,25; -4,47</t>
+          <t>-8,79; 2,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,46; -4,32</t>
+          <t>-11,6; -1,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,16; -2,78</t>
+          <t>-9,8; 2,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,97; -4,42</t>
+          <t>-14,69; -3,42</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-12,98; -1,0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-14,95; -2,58</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-14,12; -2,07</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-71,64%</t>
+          <t>-87,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-65,81%</t>
+          <t>-62,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-62,39%</t>
+          <t>-58,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-63,04%</t>
+          <t>-72,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-45,77%</t>
+          <t>-46,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-71,91%</t>
+          <t>-29,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-66,8%</t>
+          <t>-62,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-54,4%</t>
+          <t>-44,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-67,65%</t>
+          <t>-66,85%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-45,89%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-59,97%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-58,87%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-90,03; -37,78</t>
+          <t>-100,0; -55,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-86,28; -25,29</t>
+          <t>-92,48; -5,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-84,48; -17,42</t>
+          <t>-91,17; 6,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-81,81; -32,56</t>
+          <t>-94,23; -24,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,72; -10,92</t>
+          <t>-75,2; 13,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,63; -45,4</t>
+          <t>-65,92; 36,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-79,87; -45,14</t>
+          <t>-84,54; -13,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,05; -28,67</t>
+          <t>-76,34; 47,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-82,35; -46,35</t>
+          <t>-85,46; -37,6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-72,29; -9,83</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-82,04; -25,63</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-81,08; -17,92</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-5,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>-5,27</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-3,84</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-4,2</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-5,52</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -2,65</t>
+          <t>-10,62; -1,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -0,43</t>
+          <t>-8,32; 1,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 0,14</t>
+          <t>-7,58; 2,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 1,99</t>
+          <t>-9,26; 0,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 1,8</t>
+          <t>-10,8; -0,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 3,25</t>
+          <t>-10,13; 0,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,95; -1,19</t>
+          <t>-11,55; -1,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,21; -0,57</t>
+          <t>-12,61; -3,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 0,29</t>
+          <t>-8,89; -2,11</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,87; -0,5</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-8,18; -0,68</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-9,36; -2,33</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-77,67%</t>
+          <t>-79,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-63,75%</t>
+          <t>-49,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-51,83%</t>
+          <t>-30,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-40,36%</t>
+          <t>-58,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-36,11%</t>
+          <t>-60,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-30,04%</t>
+          <t>-49,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-56,69%</t>
+          <t>-70,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-48,69%</t>
+          <t>-79,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-40,25%</t>
+          <t>-67,88%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-49,44%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-54,1%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-71,03%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-95,0; -38,68</t>
+          <t>-100,0; 2,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-89,84; 6,93</t>
+          <t>-89,55; 76,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-79,42; 11,67</t>
+          <t>-79,48; 93,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-71,87; 39,72</t>
+          <t>-91,66; 55,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,73; 37,68</t>
+          <t>-87,35; 1,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-67,0; 57,9</t>
+          <t>-81,52; 21,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-77,67; -11,6</t>
+          <t>-91,65; -15,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,69; -6,68</t>
+          <t>-95,24; -40,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-66,98; 11,76</t>
+          <t>-87,17; -29,26</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-78,18; -4,85</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-77,87; -3,44</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-88,14; -28,52</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,76</t>
+          <t>-6,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-9,62</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,45</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-7,21</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,15</t>
+          <t>-4,01</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,83</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-3,0</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-4,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 2,46</t>
+          <t>-18,93; 12,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 15,3</t>
+          <t>-14,82; 20,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,99; -0,44</t>
+          <t>-23,46; 3,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,42; -4,1</t>
+          <t>-19,45; 13,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 6,12</t>
+          <t>-14,35; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 2,81</t>
+          <t>-5,41; 16,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,54; -2,25</t>
+          <t>-7,35; 12,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 7,77</t>
+          <t>-14,35; 0,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,67; -1,03</t>
+          <t>-12,42; 3,07</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 14,1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-12,92; 4,43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-11,3; 5,26</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-60,82%</t>
+          <t>-33,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>42,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-82,48%</t>
+          <t>-71,56%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-38,68%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-32,4%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-56,62%</t>
+          <t>81,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-81,35%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-69,32%</t>
+          <t>-56,71%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>54,07%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-42,4%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-57,81%</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1412,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 126,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,75; 444,7</t>
+          <t>-79,6; 891,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1243,27 +1432,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,46; 162,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 140,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 4,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,26; 155,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-93,2; 2,75</t>
+          <t>-100,0; 278,68</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-59,62; 550,73</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>-7,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,68</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>-6,23</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-3,69</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-5,31</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-5,86</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -3,65</t>
+          <t>-16,0; -3,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,39; -1,75</t>
+          <t>-13,19; -0,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -2,6</t>
+          <t>-13,57; -0,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,12; -3,21</t>
+          <t>-14,22; -2,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,22; -1,39</t>
+          <t>-8,52; -1,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,96; -3,01</t>
+          <t>-6,44; 0,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -4,05</t>
+          <t>-9,05; -2,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,87; -2,45</t>
+          <t>-9,06; -1,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,98; -3,56</t>
+          <t>-9,53; -3,75</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-7,4; -0,98</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-8,62; -2,66</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; -3,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-72,59%</t>
+          <t>-79,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-53,62%</t>
+          <t>-48,04%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-61,15%</t>
+          <t>-52,02%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-58,57%</t>
+          <t>-64,8%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-41,11%</t>
+          <t>-54,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-56,03%</t>
+          <t>-31,52%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-64,77%</t>
+          <t>-61,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-46,7%</t>
+          <t>-60,51%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-58,5%</t>
+          <t>-66,49%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-39,4%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-56,68%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-62,61%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-85,28; -48,15</t>
+          <t>-93,77; -52,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-75,33; -22,43</t>
+          <t>-78,92; 0,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-78,63; -32,41</t>
+          <t>-80,83; -9,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-74,58; -33,09</t>
+          <t>-86,86; -27,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,03; -13,77</t>
+          <t>-73,88; -20,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-73,19; -32,0</t>
+          <t>-57,16; 12,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-75,79; -48,85</t>
+          <t>-79,79; -31,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-62,7; -29,26</t>
+          <t>-81,42; -22,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-70,85; -38,49</t>
+          <t>-80,65; -46,09</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-61,08; -11,44</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-73,55; -29,14</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-78,33; -38,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
